--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1379273.625536643</v>
+        <v>1483507.33393009</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12502432.03437992</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10650685.75303044</v>
+        <v>10659598.64428204</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>337.7433820845372</v>
       </c>
       <c r="X2" t="n">
-        <v>84.22290965229115</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>188.5880362967356</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>229.3597984239703</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>259.7463664567919</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>338.842961394168</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>86.50235583197842</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>252.0014335806304</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>163.1594065778551</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.8019945406872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>102.7262861760676</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>243.1373908222623</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>52.57516893522976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>67.96386702300497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>115.7063133373737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>51.36569740310427</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3241,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>208.7327685259453</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>141.5017810206679</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2811815126421555</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.6930519056948</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.901740067214</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.476813167026</v>
+        <v>788.8276219385416</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1445.953154118198</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1445.953154118198</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.335027177757</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="W4" t="n">
-        <v>902.9178571407958</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="X4" t="n">
-        <v>902.9178571407958</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="Y4" t="n">
-        <v>682.1252779972657</v>
+        <v>970.4760867687813</v>
       </c>
     </row>
     <row r="5">
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2746.967338392416</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D7" t="n">
         <v>527.322087337517</v>
@@ -4711,16 +4713,16 @@
         <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1839.918431086494</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1618.151815656021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1329.048948781664</v>
+        <v>1481.061761308622</v>
       </c>
       <c r="V7" t="n">
-        <v>1074.364460575777</v>
+        <v>1226.377273102735</v>
       </c>
       <c r="W7" t="n">
-        <v>1074.364460575777</v>
+        <v>936.9601030657741</v>
       </c>
       <c r="X7" t="n">
-        <v>846.3749096777597</v>
+        <v>708.9705521677568</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.3749096777597</v>
+        <v>708.9705521677568</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3050.507671744493</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3050.507671744493</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2719.444784400922</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2719.444784400922</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533245</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>880.2242361621296</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>181.169050396912</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>181.169050396912</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4999,13 +5001,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621296</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5191,10 +5193,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,13 +5226,13 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V13" t="n">
         <v>2018.514925172274</v>
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5772922261132</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6411092982063</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>665.5244698858705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>517.6113763034774</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>370.721428805567</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,7 +5542,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714582</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872168</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,7 +5995,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>444.7013164925216</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3227.225672628157</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>3058.28948970025</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>2908.172850287915</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>2760.259756705521</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>2613.369809207611</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U31" t="n">
-        <v>4401.757925742791</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V31" t="n">
-        <v>4147.073437536905</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W31" t="n">
-        <v>3857.656267499944</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>3629.666716601927</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>3408.874137458397</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6692,43 +6694,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6874,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192592</v>
@@ -6944,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>2864.693115711029</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>2864.693115711029</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>2714.576476298693</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>2566.6633827163</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="G37" t="n">
-        <v>202.3036411041575</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>4547.902060458524</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>4328.300595481465</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>4039.225368825663</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>3784.540880619777</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>3495.123710582816</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>3267.134159684799</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>3046.341580541269</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,16 +7192,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>701.0383482155643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>550.9217088032285</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>403.0086152208354</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>378.6527890600109</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F43" t="n">
-        <v>378.6527890600109</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>4102.283767206194</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>9.000252501565654</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>99.28295407562287</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822997</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>114.1584408891646</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>154.8900140445861</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -25081,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>77.45170586329888</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>39.52450498097664</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.1398665102891</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>23.83108638657407</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>932821.1505725038</v>
+        <v>941734.04182411</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.084126442</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26319,7 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062538</v>
@@ -26326,28 +26328,28 @@
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062535</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89134.17909312015</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26448,16 +26450,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9947.144321768897</v>
+      </c>
+      <c r="O4" t="n">
         <v>9947.144321768899</v>
       </c>
-      <c r="N4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9947.144321768899</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1012661.759216929</v>
+        <v>-832468.8602578091</v>
       </c>
       <c r="C6" t="n">
-        <v>316082.9865106635</v>
+        <v>112644.2448985575</v>
       </c>
       <c r="D6" t="n">
-        <v>316082.9865106635</v>
+        <v>316082.9865106636</v>
       </c>
       <c r="E6" t="n">
-        <v>67984.48885322247</v>
+        <v>67984.48885322234</v>
       </c>
       <c r="F6" t="n">
         <v>393396.9506605779</v>
       </c>
       <c r="G6" t="n">
-        <v>393396.9506605779</v>
+        <v>393396.9506605778</v>
       </c>
       <c r="H6" t="n">
         <v>393396.9506605776</v>
@@ -26543,19 +26545,19 @@
         <v>393396.9506605777</v>
       </c>
       <c r="J6" t="n">
-        <v>175865.7482633002</v>
+        <v>225791.772850595</v>
       </c>
       <c r="K6" t="n">
-        <v>393396.9506605777</v>
+        <v>344286.8579545232</v>
       </c>
       <c r="L6" t="n">
         <v>393396.9506605777</v>
       </c>
       <c r="M6" t="n">
-        <v>308341.922725066</v>
+        <v>308341.9227250658</v>
       </c>
       <c r="N6" t="n">
-        <v>393396.9506605775</v>
+        <v>393396.9506605777</v>
       </c>
       <c r="O6" t="n">
         <v>393396.9506605776</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>11.49758663287582</v>
       </c>
       <c r="X2" t="n">
-        <v>285.5081910261779</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>32.16065970047637</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>22.77784489985766</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>89.49460226062115</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>30.88813928430108</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,19 +27824,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>103.2666694994635</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>34.21040462498252</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.75856356176502</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>349.4359441153664</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>64.52053492256027</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.276018431326</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29946,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>502.2268148619681</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772193</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,7 +34459,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>553.380344896426</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>359.6305704175236</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028602912</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37242,7 +37244,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066212</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1483507.33393009</v>
+        <v>1479453.208170711</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>219.9879600174297</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>337.7433820845372</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.28962109883656</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>188.5880362967356</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.885318897405934</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>338.842961394168</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>80.00124118081871</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>252.0014335806304</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>163.1594065778551</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>332.4467765760096</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>17.1579442152432</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>243.1373908222623</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5.421623586788709</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>208.7327685259453</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>141.5017810206679</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>149.9095691544923</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.158487398107</v>
+        <v>1797.459220126683</v>
       </c>
       <c r="C2" t="n">
-        <v>1634.158487398107</v>
+        <v>1428.496703186272</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1070.231004579521</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>684.4427519812771</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>273.4568471916695</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W2" t="n">
-        <v>1634.158487398107</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X2" t="n">
-        <v>1634.158487398107</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634.158487398107</v>
+        <v>2184.059060190805</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>319.288010294531</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>613.9915673260027</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.8276219385416</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106347</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>399.7490786554496</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>252.8591311575392</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>84.87266646581782</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1445.953154118198</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1445.953154118198</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.268665912311</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.268665912311</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>1191.268665912311</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>970.4760867687813</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4609,10 +4609,10 @@
         <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.041072043026</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1986.901740067214</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527.322087337517</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
         <v>527.322087337517</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1846.485213562414</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="U7" t="n">
-        <v>1481.061761308622</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="V7" t="n">
-        <v>1226.377273102735</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>936.9601030657741</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>708.9705521677568</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.9705521677568</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3050.507671744493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3050.507671744493</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2719.444784400922</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.444784400922</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.979026139843</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.169050396912</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>181.169050396912</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>181.169050396912</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5369,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866304</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6691,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6946,43 +6946,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2864.693115711029</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2864.693115711029</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2714.576476298693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2566.6633827163</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2419.77343521839</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.77343521839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4547.902060458524</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4328.300595481465</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>4039.225368825663</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3784.540880619777</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3495.123710582816</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3267.134159684799</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3046.341580541269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>215.8238677453423</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>215.8238677453423</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>215.8238677453423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7788,19 +7788,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21.18099370047435</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.4490126143855</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9.000252501565654</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>77.45170586329888</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>39.52450498097664</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>19.50758019582713</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917189.084126442</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264417</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062537</v>
@@ -26349,13 +26349,13 @@
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>203438.741612106</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605448</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26456,7 +26456,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832468.8602578091</v>
+        <v>-832468.8602578093</v>
       </c>
       <c r="C6" t="n">
-        <v>112644.2448985575</v>
+        <v>112644.2448985576</v>
       </c>
       <c r="D6" t="n">
         <v>316082.9865106636</v>
       </c>
       <c r="E6" t="n">
-        <v>67984.48885322234</v>
+        <v>67637.10959886554</v>
       </c>
       <c r="F6" t="n">
-        <v>393396.9506605779</v>
+        <v>393049.5714062206</v>
       </c>
       <c r="G6" t="n">
-        <v>393396.9506605778</v>
+        <v>393049.5714062206</v>
       </c>
       <c r="H6" t="n">
-        <v>393396.9506605776</v>
+        <v>393049.5714062206</v>
       </c>
       <c r="I6" t="n">
-        <v>393396.9506605777</v>
+        <v>393049.5714062207</v>
       </c>
       <c r="J6" t="n">
-        <v>225791.772850595</v>
+        <v>225444.3935962382</v>
       </c>
       <c r="K6" t="n">
-        <v>344286.8579545232</v>
+        <v>343939.4787001663</v>
       </c>
       <c r="L6" t="n">
-        <v>393396.9506605777</v>
+        <v>393049.5714062207</v>
       </c>
       <c r="M6" t="n">
-        <v>308341.9227250658</v>
+        <v>307994.5434707088</v>
       </c>
       <c r="N6" t="n">
-        <v>393396.9506605777</v>
+        <v>393049.5714062207</v>
       </c>
       <c r="O6" t="n">
-        <v>393396.9506605776</v>
+        <v>393049.5714062208</v>
       </c>
       <c r="P6" t="n">
-        <v>393396.9506605777</v>
+        <v>393049.5714062206</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>155.7118084757592</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022539</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>191.5597427555242</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>11.49758663287582</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>113.9618880562923</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>32.16065970047637</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0450511748559</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>30.88813928430108</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>109.7677841506232</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>34.21040462498252</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>40.75856356176502</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>53.79116208004399</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>129.276018431326</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>207.7684899439592</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>553.380344896426</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37244,7 +37244,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066212</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479453.208170711</v>
+        <v>1481213.738473496</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>62.18412773543107</v>
       </c>
       <c r="G2" t="n">
-        <v>219.9879600174297</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>92.87962584274391</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.28962109883656</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9.885318897405934</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>300.3401491857036</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>80.00124118081871</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>74.32262784155922</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>332.4467765760096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>101.6969570046971</v>
+        <v>19.91555826189146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>95.77623638693879</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>139.0903271400897</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227934</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>44.75138076689361</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>149.9095691544923</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7058473537595</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1797.459220126683</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1428.496703186272</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="D2" t="n">
-        <v>1070.231004579521</v>
+        <v>1285.984832846309</v>
       </c>
       <c r="E2" t="n">
-        <v>684.4427519812771</v>
+        <v>900.1965802480647</v>
       </c>
       <c r="F2" t="n">
-        <v>273.4568471916695</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>319.288010294531</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>613.9915673260027</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657496</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378427</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D4" t="n">
-        <v>547.6621722378427</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="E4" t="n">
-        <v>399.7490786554496</v>
+        <v>145.0645904495626</v>
       </c>
       <c r="F4" t="n">
-        <v>252.8591311575392</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>84.87266646581782</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.101759311879</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1200.139242371468</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1200.139242371468</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883007</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612893</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351813</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376001</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1846.485213562414</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1624.71859813194</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1624.71859813194</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883007</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621927</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4883,22 +4883,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277355</v>
+        <v>113.933388565034</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6363,61 +6363,61 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
         <v>1573.595244679635</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6600,73 +6600,73 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="38">
@@ -7168,13 +7168,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,7 +7183,7 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,16 +7192,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7399,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.5507239167111</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1893.082977031346</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.398488825459</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1348.981318788498</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1120.991767890481</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.1991887469509</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>21.18099370047435</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43.72409101823416</v>
+        <v>125.5054897610398</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>113.0473161837383</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.9259388694754591</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.8640922513187</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>136.2749052347519</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>40.32043864788506</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.0841264416</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917189.0841264419</v>
+        <v>917189.084126442</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917189.0841264417</v>
+        <v>917189.0841264419</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062536</v>
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
@@ -26438,7 +26438,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832468.8602578093</v>
+        <v>-832468.8602578095</v>
       </c>
       <c r="C6" t="n">
-        <v>112644.2448985576</v>
+        <v>112644.2448985577</v>
       </c>
       <c r="D6" t="n">
-        <v>316082.9865106636</v>
+        <v>316082.9865106635</v>
       </c>
       <c r="E6" t="n">
-        <v>67637.10959886554</v>
+        <v>67949.75092778646</v>
       </c>
       <c r="F6" t="n">
-        <v>393049.5714062206</v>
+        <v>393362.2127351422</v>
       </c>
       <c r="G6" t="n">
-        <v>393049.5714062206</v>
+        <v>393362.212735142</v>
       </c>
       <c r="H6" t="n">
-        <v>393049.5714062206</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="I6" t="n">
-        <v>393049.5714062207</v>
+        <v>393362.2127351418</v>
       </c>
       <c r="J6" t="n">
-        <v>225444.3935962382</v>
+        <v>225757.0349251595</v>
       </c>
       <c r="K6" t="n">
-        <v>343939.4787001663</v>
+        <v>344252.1200290875</v>
       </c>
       <c r="L6" t="n">
-        <v>393049.5714062207</v>
+        <v>393362.212735142</v>
       </c>
       <c r="M6" t="n">
-        <v>307994.5434707088</v>
+        <v>308307.1847996302</v>
       </c>
       <c r="N6" t="n">
-        <v>393049.5714062207</v>
+        <v>393362.2127351419</v>
       </c>
       <c r="O6" t="n">
-        <v>393049.5714062208</v>
+        <v>393362.212735142</v>
       </c>
       <c r="P6" t="n">
-        <v>393049.5714062206</v>
+        <v>393362.2127351419</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022539</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022539</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>344.6919180062804</v>
       </c>
       <c r="G2" t="n">
-        <v>191.5597427555242</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.54142218018734</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>113.9618880562923</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>372.0450511748559</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>85.89778947035001</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>109.7677841506232</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>274.9183408758538</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.79116208004399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330446</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>207.7684899439592</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317046</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
